--- a/docs/review-protocol.xlsx
+++ b/docs/review-protocol.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Findings</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>app.py should be renamed to main.py</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Smoothness of resized images is not good</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -184,7 +190,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -198,6 +204,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -216,12 +228,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -236,18 +242,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="findings" displayName="findings" ref="A1:A6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="findings" displayName="findings" ref="A1:A6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Findings" dataDxfId="2"/>
+    <tableColumn id="1" name="Findings" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="status" displayName="status" ref="C1:C4" totalsRowShown="0">
-  <autoFilter ref="C1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="status" displayName="status" ref="C1:C5" totalsRowShown="0">
+  <autoFilter ref="C1:C5"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Status"/>
   </tableColumns>
@@ -521,7 +527,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +595,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="4"/>
@@ -608,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="4"/>
@@ -627,7 +633,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="4"/>
@@ -646,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
@@ -665,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
@@ -682,17 +688,25 @@
         <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5">
+        <v>43716</v>
+      </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
     </row>
@@ -1537,7 +1551,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,6 +1595,9 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">

--- a/docs/review-protocol.xlsx
+++ b/docs/review-protocol.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Findings</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Smoothness of resized images is not good</t>
+  </si>
+  <si>
+    <t>Solution: change Sampling/Interpolation method to INTER_AREA</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +540,7 @@
     <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -597,7 +600,9 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5">
+        <v>43716</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -616,7 +621,9 @@
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5">
+        <v>43716</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -635,7 +642,9 @@
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5">
+        <v>43716</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -654,7 +663,9 @@
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5">
+        <v>43716</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -673,7 +684,9 @@
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5">
+        <v>43716</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,7 +703,9 @@
       <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5">
+        <v>43716</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,10 +720,14 @@
         <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43716</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1537,7 +1556,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C100">
       <formula1>findings_list</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A100">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A100 F3:F9">
       <formula1>43695</formula1>
       <formula2>43830</formula2>
     </dataValidation>
